--- a/data/dati.xlsx
+++ b/data/dati.xlsx
@@ -663,7 +663,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>D03, E01</t>
+          <t>E01, D03</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -883,7 +883,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>E71, E00</t>
+          <t>E00, E71</t>
         </is>
       </c>
       <c r="C23" t="n">

--- a/data/dati.xlsx
+++ b/data/dati.xlsx
@@ -663,7 +663,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>E01, D03</t>
+          <t>D03, E01</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -883,7 +883,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>E00, E71</t>
+          <t>E71, E00</t>
         </is>
       </c>
       <c r="C23" t="n">
